--- a/Italy - Rome/Computations_edited.xlsx
+++ b/Italy - Rome/Computations_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristelzapata/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abyss Web Server\htdocs\gqueers_space_apps\Italy - Rome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FAAC8FE-8403-104E-A9AF-2EEFAA38945A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E35E35-FA86-40A5-B602-6D2D7FBDF3E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="4740" windowWidth="17420" windowHeight="11440" activeTab="1" xr2:uid="{73689D7F-F3ED-4E53-AFFB-74B56113E0CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73689D7F-F3ED-4E53-AFFB-74B56113E0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="139">
   <si>
     <t>20180801-20180807</t>
   </si>
@@ -328,21 +326,12 @@
     <t>#949494</t>
   </si>
   <si>
-    <t>#383838</t>
-  </si>
-  <si>
     <t>#dcdcdc</t>
   </si>
   <si>
     <t>#9b9b9b</t>
   </si>
   <si>
-    <t>#3c3c3c</t>
-  </si>
-  <si>
-    <t>#222222</t>
-  </si>
-  <si>
     <t>#3b3b3b</t>
   </si>
   <si>
@@ -358,15 +347,6 @@
     <t>#efefef</t>
   </si>
   <si>
-    <t>#373737</t>
-  </si>
-  <si>
-    <t>#878787</t>
-  </si>
-  <si>
-    <t>#c1c1c1</t>
-  </si>
-  <si>
     <t>#f5f5f5</t>
   </si>
   <si>
@@ -397,21 +377,105 @@
     <t>#eaeaea</t>
   </si>
   <si>
-    <t>#333333</t>
-  </si>
-  <si>
     <t>#dedede</t>
   </si>
   <si>
     <t>#979797</t>
+  </si>
+  <si>
+    <t>Reweigh</t>
+  </si>
+  <si>
+    <t>HSV</t>
+  </si>
+  <si>
+    <t>0°, 0%, 58%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 89%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 86%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 61%</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0°, 0%, 88%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 66%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 92%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 87%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 59%</t>
+  </si>
+  <si>
+    <t>#bcbcbc</t>
+  </si>
+  <si>
+    <t>0°, 0%, 74%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 96%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 82%</t>
+  </si>
+  <si>
+    <t>#f2f2f2</t>
+  </si>
+  <si>
+    <t>#b5b5b5</t>
+  </si>
+  <si>
+    <t>0°, 0%, 71%</t>
+  </si>
+  <si>
+    <t>0°, 0%, 95%</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>Lights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -436,22 +500,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,25 +771,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.1</c:v>
+                  <c:v>0.73903000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.73875000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.83878000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.7266999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3</c:v>
+                  <c:v>0.80528</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.7</c:v>
+                  <c:v>0.77726000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74903999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,6 +801,102 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C611-4F31-BA63-B15379F30E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$102:$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>August 1, 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>November 1, 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>February 1, 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 1, 2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>August 1, 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>November 10, 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>February 1, 2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May 1, 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$102:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8EE-4977-9C4D-26E0FCD2B1F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1506,16 +1679,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1538,6 +1711,94 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180412</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F84D05-8C26-47D6-8F46-9A45D9A0ACDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="21088350"/>
+          <a:ext cx="4504762" cy="1019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161145</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>75602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458325EF-6692-422F-AA4D-CACFDDDFCEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="22345650"/>
+          <a:ext cx="6238095" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1842,19 +2103,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E6E4DC-7B51-49A0-BDA0-295A27F565BE}">
   <dimension ref="A5:M109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>43.2</v>
       </c>
@@ -1911,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>0.8</v>
       </c>
@@ -1936,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>0.8</v>
       </c>
@@ -1961,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>0.2</v>
       </c>
@@ -1986,7 +2247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>0.1</v>
       </c>
@@ -2011,7 +2272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" t="e">
         <f t="shared" si="0"/>
@@ -2028,7 +2289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2315,7 @@
         <v>3.448</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>16.7</v>
       </c>
@@ -2073,7 +2334,7 @@
         <v>1.3359999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>14.1</v>
       </c>
@@ -2092,7 +2353,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>12</v>
       </c>
@@ -2111,7 +2372,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>7.7</v>
       </c>
@@ -2130,7 +2391,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -2149,7 +2410,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>0.7</v>
       </c>
@@ -2168,7 +2429,7 @@
         <v>4.1999999999999996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>0.6</v>
       </c>
@@ -2187,7 +2448,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="F20" t="e">
         <f t="shared" si="0"/>
@@ -2198,7 +2459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2485,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>29.1</v>
       </c>
@@ -2243,7 +2504,7 @@
         <v>2.3280000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -2262,7 +2523,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>10.6</v>
       </c>
@@ -2281,7 +2542,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>6.5</v>
       </c>
@@ -2300,7 +2561,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>2.1</v>
       </c>
@@ -2319,7 +2580,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>2</v>
       </c>
@@ -2338,7 +2599,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>1.4</v>
       </c>
@@ -2357,7 +2618,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="F29" t="e">
         <f t="shared" si="0"/>
@@ -2368,7 +2629,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2394,7 +2655,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>26.1</v>
       </c>
@@ -2413,7 +2674,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>22.4</v>
       </c>
@@ -2432,7 +2693,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>7.2</v>
       </c>
@@ -2451,7 +2712,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>6.2</v>
       </c>
@@ -2470,7 +2731,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>5</v>
       </c>
@@ -2489,7 +2750,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>1.5</v>
       </c>
@@ -2508,7 +2769,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="F37" t="e">
         <f t="shared" si="0"/>
@@ -2519,7 +2780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="F38" t="e">
         <f t="shared" si="0"/>
@@ -2530,7 +2791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +2817,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>9.8000000000000007</v>
       </c>
@@ -2575,7 +2836,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>7.6</v>
       </c>
@@ -2594,7 +2855,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>6.1</v>
       </c>
@@ -2613,7 +2874,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>2.7</v>
       </c>
@@ -2632,7 +2893,7 @@
         <v>0.21600000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -2651,7 +2912,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="F45" t="e">
         <f t="shared" si="0"/>
@@ -2662,7 +2923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="F46" t="e">
         <f t="shared" si="0"/>
@@ -2673,7 +2934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="F47" t="e">
         <f t="shared" si="0"/>
@@ -2684,7 +2945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2971,7 @@
         <v>7.7759999999999989</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>12.2</v>
       </c>
@@ -2729,7 +2990,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>9</v>
       </c>
@@ -2748,7 +3009,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>6.5</v>
       </c>
@@ -2767,7 +3028,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>4.5</v>
       </c>
@@ -2786,7 +3047,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>3.1</v>
       </c>
@@ -2805,7 +3066,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="F54" t="e">
         <f t="shared" si="0"/>
@@ -2816,7 +3077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="F55" t="e">
         <f t="shared" si="0"/>
@@ -2827,7 +3088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +3114,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>10.8</v>
       </c>
@@ -2872,7 +3133,7 @@
         <v>1.2960000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>5.3</v>
       </c>
@@ -2891,7 +3152,7 @@
         <v>0.6359999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -2910,7 +3171,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>4.2</v>
       </c>
@@ -2929,7 +3190,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
         <v>3.5</v>
       </c>
@@ -2948,7 +3209,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>3.4</v>
       </c>
@@ -2967,7 +3228,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -2986,7 +3247,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
         <v>1.5</v>
       </c>
@@ -3005,7 +3266,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -3024,7 +3285,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="F66" t="e">
         <f t="shared" si="0"/>
@@ -3035,7 +3296,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="F67" t="e">
         <f t="shared" si="0"/>
@@ -3046,7 +3307,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3072,7 +3333,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>15.9</v>
       </c>
@@ -3091,7 +3352,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>10.4</v>
       </c>
@@ -3110,7 +3371,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>9.6</v>
       </c>
@@ -3129,7 +3390,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
         <v>6.7</v>
       </c>
@@ -3148,7 +3409,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>6.3</v>
       </c>
@@ -3167,7 +3428,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>6.1</v>
       </c>
@@ -3186,7 +3447,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>5</v>
       </c>
@@ -3205,7 +3466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
         <v>2</v>
       </c>
@@ -3224,7 +3485,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="F77" t="e">
         <f t="shared" si="3"/>
@@ -3235,7 +3496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3522,7 @@
         <v>5.4959999999999987</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>20.8</v>
       </c>
@@ -3280,7 +3541,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>18.3</v>
       </c>
@@ -3299,7 +3560,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>9.1</v>
       </c>
@@ -3318,7 +3579,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>6</v>
       </c>
@@ -3337,7 +3598,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3606,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3353,7 +3614,7 @@
         <v>3.8159999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3622,7 @@
         <v>4.3120000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3369,7 +3630,7 @@
         <v>4.9399999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3638,7 @@
         <v>4.8849999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3385,7 +3646,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3393,7 +3654,7 @@
         <v>5.1890000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3662,7 @@
         <v>5.2640000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3409,12 +3670,18 @@
         <v>5.6409999999999991</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -3422,10 +3689,13 @@
         <v>4.9859999999999998</v>
       </c>
       <c r="C102">
+        <v>0.73903000000000008</v>
+      </c>
+      <c r="D102">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -3433,10 +3703,13 @@
         <v>3.8159999999999994</v>
       </c>
       <c r="C103">
+        <v>0.73875000000000002</v>
+      </c>
+      <c r="D103">
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -3444,10 +3717,13 @@
         <v>4.3120000000000003</v>
       </c>
       <c r="C104">
+        <v>0.83878000000000008</v>
+      </c>
+      <c r="D104">
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -3455,10 +3731,13 @@
         <v>4.9399999999999995</v>
       </c>
       <c r="C105">
+        <v>0.7266999999999999</v>
+      </c>
+      <c r="D105">
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -3466,10 +3745,13 @@
         <v>4.8849999999999998</v>
       </c>
       <c r="C106">
+        <v>0.82</v>
+      </c>
+      <c r="D106">
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -3477,10 +3759,13 @@
         <v>5.1890000000000001</v>
       </c>
       <c r="C107">
+        <v>0.80528</v>
+      </c>
+      <c r="D107">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -3488,15 +3773,21 @@
         <v>5.2640000000000002</v>
       </c>
       <c r="C108">
+        <v>0.77726000000000006</v>
+      </c>
+      <c r="D108">
         <v>-4.7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
       <c r="B109">
         <v>5.6409999999999991</v>
+      </c>
+      <c r="C109">
+        <v>0.74903999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -3507,98 +3798,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9839364B-9910-4FA5-B557-1ADA34521FF0}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I37" activeCellId="7" sqref="I5 I8 I16 I19 I21 I30 I34 I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>20180730</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C3" s="2">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <f>0.89*C3</f>
+        <v>0.45657000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
         <v>0.48699999999999999</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>20180810</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4">
+        <f>0.58*C4</f>
+        <v>0.28245999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="9">
+        <f>SUM(I3:I4)</f>
+        <v>0.73903000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20181025</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.51500000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="3">
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="I6" s="5">
+        <f>H6*C6</f>
+        <v>0.44290000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
         <v>0.48499999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="I7" s="5">
+        <f>H7*C7</f>
+        <v>0.29585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="10">
+        <f>SUM(I6:I7)</f>
+        <v>0.73875000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20181109</v>
+        <v>20190217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="3">
-        <v>0.443</v>
+      <c r="F9" s="2">
+        <f>C9/($C$9+$C$11+$C$12)</f>
+        <v>0.82582582582582575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>0.33400000000000002</v>
       </c>
       <c r="D10" t="s">
         <v>101</v>
@@ -3607,128 +3950,229 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20190217</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D11" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="3">
-        <v>0.33400000000000002</v>
+      <c r="F11" s="2">
+        <f>C11/($C$9+$C$11+$C$12)</f>
+        <v>0.10210210210210209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <f>C12/($C$9+$C$11+$C$12)</f>
+        <v>7.2072072072072058E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20190222</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.55100000000000005</v>
       </c>
       <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14:I15" si="0">H14*C14</f>
+        <v>0.40774000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="3">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43103999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="10">
+        <f>SUM(I14:I15)</f>
+        <v>0.83878000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20190420</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ref="I17:I18" si="1">H17*C17</f>
+        <v>0.29637999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D18" t="s">
         <v>106</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20190418</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="3">
-        <v>6.0999999999999999E-2</v>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43031999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="10">
+        <f>SUM(I17:I18)</f>
+        <v>0.7266999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20190718</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="I20" s="5">
+        <f>H20*C20</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="9">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20191018</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>20190420</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.51100000000000001</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>4.7E-2</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="3">
-        <v>0.48899999999999999</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D26" t="s">
         <v>112</v>
@@ -3737,140 +4181,160 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20190718</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
+        <v>20190916</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.60299999999999998</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>20191018</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="3">
-        <v>5.5E-2</v>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" ref="I28:I29" si="2">H28*C28</f>
+        <v>0.42812999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37714999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="10">
+        <f>SUM(I28:I29)</f>
+        <v>0.80528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20200208</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.54900000000000004</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="3">
-        <v>4.7E-2</v>
+      <c r="G32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" ref="I32:I33" si="3">H32*C32</f>
+        <v>0.36234000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>0.45100000000000001</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>20200208</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="3"/>
+        <v>0.41492000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="10">
+        <f>SUM(I32:I33)</f>
+        <v>0.77726000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20200508</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="3">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="D38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" ref="I35:I36" si="4">H35*C35</f>
+        <v>0.49415999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>20200505</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>20200508</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="3">
-        <v>0.432</v>
-      </c>
-      <c r="D44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="4"/>
+        <v>0.25488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="10">
+        <f>SUM(I35:I36)</f>
+        <v>0.74903999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -3883,18 +4347,18 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -3905,7 +4369,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -3913,7 +4377,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -3921,7 +4385,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -3929,7 +4393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -3940,7 +4404,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -3948,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -3956,7 +4420,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -3964,7 +4428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -3975,7 +4439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
@@ -3983,7 +4447,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>92</v>
       </c>
@@ -3991,7 +4455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -4002,7 +4466,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>90</v>
       </c>
@@ -4010,17 +4474,17 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>93</v>
       </c>

--- a/Italy - Rome/Computations_edited.xlsx
+++ b/Italy - Rome/Computations_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abyss Web Server\htdocs\gqueers_space_apps\Italy - Rome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E35E35-FA86-40A5-B602-6D2D7FBDF3E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F1E76-22E0-407A-8353-E921ED463509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73689D7F-F3ED-4E53-AFFB-74B56113E0CD}"/>
+    <workbookView xWindow="17010" yWindow="960" windowWidth="12210" windowHeight="11445" activeTab="1" xr2:uid="{73689D7F-F3ED-4E53-AFFB-74B56113E0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
   <si>
     <t>20180801-20180807</t>
   </si>
@@ -450,6 +450,24 @@
   </si>
   <si>
     <t>Lights</t>
+  </si>
+  <si>
+    <t>#c4c4c4</t>
+  </si>
+  <si>
+    <t>#fafafa</t>
+  </si>
+  <si>
+    <t>#818181</t>
+  </si>
+  <si>
+    <t>#4f4f4f</t>
+  </si>
+  <si>
+    <t>#393939</t>
+  </si>
+  <si>
+    <t>#f6f6f6</t>
   </si>
 </sst>
 </file>
@@ -457,7 +475,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -511,10 +529,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -522,6 +537,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2103,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E6E4DC-7B51-49A0-BDA0-295A27F565BE}">
   <dimension ref="A5:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,16 +3810,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9839364B-9910-4FA5-B557-1ADA34521FF0}">
-  <dimension ref="A2:I37"/>
+  <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I37" activeCellId="7" sqref="I5 I8 I16 I19 I21 I30 I34 I37"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,8 +3828,8 @@
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="7"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3862,7 +3881,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f>SUM(I3:I4)</f>
         <v>0.73903000000000008</v>
       </c>
@@ -3883,10 +3902,10 @@
       <c r="G6" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.86</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>H6*C6</f>
         <v>0.44290000000000002</v>
       </c>
@@ -3904,16 +3923,16 @@
       <c r="G7" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.61</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f>H7*C7</f>
         <v>0.29585</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f>SUM(I6:I7)</f>
         <v>0.73875000000000002</v>
       </c>
@@ -3988,7 +4007,7 @@
       <c r="A14">
         <v>20190222</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.55100000000000005</v>
       </c>
       <c r="D14" t="s">
@@ -4001,10 +4020,10 @@
       <c r="G14" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.74</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" ref="I14:I15" si="0">H14*C14</f>
         <v>0.40774000000000005</v>
       </c>
@@ -4023,19 +4042,19 @@
       <c r="G15" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.96</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0.43103999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f>SUM(I14:I15)</f>
         <v>0.83878000000000008</v>
       </c>
@@ -4056,10 +4075,10 @@
       <c r="G17" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" ref="I17:I18" si="1">H17*C17</f>
         <v>0.29637999999999998</v>
       </c>
@@ -4077,19 +4096,19 @@
       <c r="G18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>0.88</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="1"/>
         <v>0.43031999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f>SUM(I17:I18)</f>
         <v>0.7266999999999999</v>
       </c>
@@ -4110,16 +4129,16 @@
       <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0.82</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f>H20*C20</f>
         <v>0.82</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.82</v>
       </c>
     </row>
@@ -4197,10 +4216,10 @@
       <c r="G28" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0.71</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f t="shared" ref="I28:I29" si="2">H28*C28</f>
         <v>0.42812999999999996</v>
       </c>
@@ -4218,16 +4237,16 @@
       <c r="G29" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>0.95</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="2"/>
         <v>0.37714999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f>SUM(I28:I29)</f>
         <v>0.80528</v>
       </c>
@@ -4248,15 +4267,15 @@
       <c r="G32" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>0.66</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" ref="I32:I33" si="3">H32*C32</f>
         <v>0.36234000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>0.45100000000000001</v>
       </c>
@@ -4269,24 +4288,24 @@
       <c r="G33" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>0.92</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="3"/>
         <v>0.41492000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="7" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f>SUM(I32:I33)</f>
         <v>0.77726000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20200508</v>
       </c>
@@ -4302,15 +4321,15 @@
       <c r="G35" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0.87</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" ref="I35:I36" si="4">H35*C35</f>
         <v>0.49415999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>0.432</v>
       </c>
@@ -4323,22 +4342,182 @@
       <c r="G36" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>0.59</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <f t="shared" si="4"/>
         <v>0.25488</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="10">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="9">
         <f>SUM(I35:I36)</f>
         <v>0.74903999999999993</v>
       </c>
     </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46">
+        <v>0.22</v>
+      </c>
+      <c r="K46">
+        <f>J46*G46</f>
+        <v>0.19359999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>0.96</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47:K49" si="5">J47*G47</f>
+        <v>4.2239999999999993E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G49" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49">
+        <v>0.77</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>2.7719999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f>SUM(K46:K49)</f>
+        <v>0.28676000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G53" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53">
+        <v>0.31</v>
+      </c>
+      <c r="K53">
+        <f>J53*G53</f>
+        <v>0.15995999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G54" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54">
+        <v>0.51</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54:K56" si="6">J54*G54</f>
+        <v>0.13719000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G55" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>0.98</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>0.16268000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G56" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56">
+        <v>0.77</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>3.696E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f>SUM(K53:K56)</f>
+        <v>0.49679000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4353,10 +4532,10 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
